--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64824.34628705905</v>
+        <v>12778424.68318543</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64824.34628705905</v>
+        <v>12778424.68318543</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6342.195152006291</v>
+        <v>761566.491231323</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6342.195152006291</v>
+        <v>761566.491231323</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342718267.767343</v>
+        <v>55033430.98080616</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11415.6196055131</v>
+        <v>1277880.178808188</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21681.83128791734</v>
+        <v>2377980.113934807</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31948.04297032088</v>
+        <v>3478080.049061525</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42256.08388432345</v>
+        <v>4580510.710621864</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52553.82984883107</v>
+        <v>5680892.677232707</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62851.57581333868</v>
+        <v>6781274.643843549</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73149.32177784585</v>
+        <v>7881656.610454461</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83447.06774235347</v>
+        <v>8982038.5770653</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93570.14419817257</v>
+        <v>10026107.3365133</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103566.6339337585</v>
+        <v>11123863.24270859</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113563.1236693447</v>
+        <v>12221619.14890386</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123486.7291148439</v>
+        <v>13316297.14280667</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133430.924459333</v>
+        <v>14414115.09630545</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143854.1983466916</v>
+        <v>15441921.06188303</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154611.152951947</v>
+        <v>16419737.78438673</v>
       </c>
     </row>
   </sheetData>
